--- a/content/translations.xlsx
+++ b/content/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdela\Desktop\Lancelot\Programmation\aws\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13CBC7A-D47E-49AA-A5E7-B4B1CE20D5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CDD3E-848C-4F1E-BF22-B7A38C9A063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="2910" windowWidth="29880" windowHeight="17265" xr2:uid="{EB1EC7F3-5CEA-4A52-9E4E-D238E38F2B98}"/>
   </bookViews>
@@ -7373,8 +7373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB5519B-81DB-4647-9567-D2E01FE95EC9}">
   <dimension ref="A1:F966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A463" workbookViewId="0">
-      <selection activeCell="E475" sqref="E475"/>
+    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
+      <selection activeCell="D497" sqref="D497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>

--- a/content/translations.xlsx
+++ b/content/translations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fdela\Desktop\Lancelot\Programmation\aws\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38CDD3E-848C-4F1E-BF22-B7A38C9A063B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64AC3C-9280-4471-BC9A-334E064C8F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1800" yWindow="2910" windowWidth="29880" windowHeight="17265" xr2:uid="{EB1EC7F3-5CEA-4A52-9E4E-D238E38F2B98}"/>
   </bookViews>
@@ -6782,205 +6782,205 @@
     <t>600</t>
   </si>
   <si>
-    <t>’, ‘, ‛&amp;nbsp;&amp;nbsp;→&amp;nbsp;'</t>
-  </si>
-  <si>
-    <t>----, ---, --, –&amp;nbsp;&amp;nbsp;→&amp;nbsp;—</t>
-  </si>
-  <si>
-    <t>…&amp;nbsp;&amp;nbsp;→&amp;nbsp;…</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;«</t>
-  </si>
-  <si>
-    <t>&gt;&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;»</t>
-  </si>
-  <si>
-    <t>+-+&amp;nbsp;&amp;nbsp;→&amp;nbsp;—</t>
-  </si>
-  <si>
-    <t>=+=&amp;nbsp;&amp;nbsp;→&amp;nbsp;[…]</t>
-  </si>
-  <si>
-    <t>&lt;!-- xxx --&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;deleted</t>
-  </si>
-  <si>
-    <t>&lt;!-- xxx --&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;supprimé</t>
-  </si>
-  <si>
-    <t>%&amp;nbsp;&amp;nbsp;→&amp;nbsp;deleted</t>
-  </si>
-  <si>
-    <t>%&amp;nbsp;&amp;nbsp;→&amp;nbsp;supprimé</t>
-  </si>
-  <si>
-    <t>* xxx *&amp;nbsp;&amp;nbsp;→&amp;nbsp;italic</t>
-  </si>
-  <si>
-    <t>* xxx *&amp;nbsp;&amp;nbsp;→&amp;nbsp;italique</t>
-  </si>
-  <si>
-    <t>*µ xxx µ*&amp;nbsp;&amp;nbsp;→&amp;nbsp;bold</t>
-  </si>
-  <si>
-    <t>*µ xxx µ*&amp;nbsp;&amp;nbsp;→&amp;nbsp;gras</t>
-  </si>
-  <si>
-    <t>*µµ xxx µµ*&amp;nbsp;&amp;nbsp;→&amp;nbsp;italic bold</t>
-  </si>
-  <si>
-    <t>*µµ xxx µµ*&amp;nbsp;&amp;nbsp;→&amp;nbsp;italique gras</t>
-  </si>
-  <si>
-    <t>££&amp;nbsp;&amp;nbsp;→&amp;nbsp;acrostic</t>
-  </si>
-  <si>
-    <t>££&amp;nbsp;&amp;nbsp;→&amp;nbsp;acrostiche</t>
-  </si>
-  <si>
-    <t>#&amp;nbsp;&amp;nbsp;→&amp;nbsp;Title</t>
-  </si>
-  <si>
-    <t>#&amp;nbsp;&amp;nbsp;→&amp;nbsp;Titre</t>
-  </si>
-  <si>
-    <t>##&amp;nbsp;&amp;nbsp;→&amp;nbsp;Author</t>
-  </si>
-  <si>
-    <t>##&amp;nbsp;&amp;nbsp;→&amp;nbsp;Auteur</t>
-  </si>
-  <si>
-    <t>###&amp;nbsp;&amp;nbsp;→&amp;nbsp;Compilation Title</t>
-  </si>
-  <si>
-    <t>###&amp;nbsp;&amp;nbsp;→&amp;nbsp;Titre du recueil</t>
-  </si>
-  <si>
-    <t>####&amp;nbsp;&amp;nbsp;→&amp;nbsp;Year</t>
-  </si>
-  <si>
-    <t>####&amp;nbsp;&amp;nbsp;→&amp;nbsp;Année</t>
-  </si>
-  <si>
-    <t>#####&amp;nbsp;&amp;nbsp;→&amp;nbsp;Sub-title</t>
-  </si>
-  <si>
-    <t>#####&amp;nbsp;&amp;nbsp;→&amp;nbsp;Sous-titre</t>
-  </si>
-  <si>
-    <t>&gt;$&amp;nbsp;&amp;nbsp;→&amp;nbsp;Part number</t>
-  </si>
-  <si>
-    <t>&gt;$&amp;nbsp;&amp;nbsp;→&amp;nbsp;Numéro de partie</t>
-  </si>
-  <si>
-    <t>&lt;=+ xxx +=&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Non-verse text</t>
-  </si>
-  <si>
-    <t>&lt;=+ xxx +=&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Texte hors vers</t>
-  </si>
-  <si>
-    <t>&lt;+ xxx +&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Quotation</t>
-  </si>
-  <si>
-    <t>&lt;+ xxx +&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Citation</t>
-  </si>
-  <si>
-    <t>&lt;++ xxx ++&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Quotation’s Author</t>
-  </si>
-  <si>
-    <t>&lt;++ xxx ++&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Auteur de la citation</t>
-  </si>
-  <si>
-    <t>²cpl1&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr: [Couplet 1] en: [Verse 1]</t>
-  </si>
-  <si>
-    <t>²cpl1&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr : [Couplet 1] en : [Verse 1]</t>
-  </si>
-  <si>
-    <t>²rfn1&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr: [Refrain 1] en: [Chorus 1]</t>
-  </si>
-  <si>
-    <t>²rfn1&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr : [Refrain 1] en : [Chorus 1]</t>
-  </si>
-  <si>
-    <t>²pnt&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr: [Pont]  en: [Bridge]</t>
-  </si>
-  <si>
-    <t>²pnt&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr : [Pont]  en : [Bridge]</t>
-  </si>
-  <si>
-    <t>²rnv&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr: [Renvoi]en: [Tag]</t>
-  </si>
-  <si>
-    <t>²rnv&amp;nbsp;&amp;nbsp;→&amp;nbsp;fr : [Renvoi]en : [Tag]</t>
-  </si>
-  <si>
-    <t>²itl&amp;nbsp;&amp;nbsp;→&amp;nbsp;[Interlude]</t>
-  </si>
-  <si>
-    <t>²int&amp;nbsp;&amp;nbsp;→&amp;nbsp;[Intro]</t>
-  </si>
-  <si>
-    <t>²out&amp;nbsp;&amp;nbsp;→&amp;nbsp;[Outro]</t>
-  </si>
-  <si>
-    <t>²brp&amp;nbsp;&amp;nbsp;→&amp;nbsp;(bis repetitas)</t>
-  </si>
-  <si>
-    <t>&lt;= xxx =&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Centered</t>
-  </si>
-  <si>
-    <t>&lt;= xxx =&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Centré</t>
-  </si>
-  <si>
-    <t>&lt;== xxx ==&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Right-aligned</t>
-  </si>
-  <si>
-    <t>&lt;== xxx ==&gt;&amp;nbsp;&amp;nbsp;→&amp;nbsp;Aligné à droite</t>
-  </si>
-  <si>
-    <t>&gt;=&amp;nbsp;&amp;nbsp;→&amp;nbsp;Regular Line Jump</t>
-  </si>
-  <si>
-    <t>&gt;=&amp;nbsp;&amp;nbsp;→&amp;nbsp;Saut de ligne simple</t>
-  </si>
-  <si>
-    <t>&gt;==&amp;nbsp;&amp;nbsp;→&amp;nbsp;Medium Line Jump</t>
-  </si>
-  <si>
-    <t>&gt;==&amp;nbsp;&amp;nbsp;→&amp;nbsp;Saut de ligne moyen</t>
-  </si>
-  <si>
-    <t>&gt;===&amp;nbsp;&amp;nbsp;→&amp;nbsp;Big Line Jump</t>
-  </si>
-  <si>
-    <t>&gt;===&amp;nbsp;&amp;nbsp;→&amp;nbsp;Saut de ligne large</t>
-  </si>
-  <si>
-    <t>&gt;+&amp;nbsp;&amp;nbsp;→&amp;nbsp;Regular Indent</t>
-  </si>
-  <si>
-    <t>&gt;+&amp;nbsp;&amp;nbsp;→&amp;nbsp;Indentation simple</t>
-  </si>
-  <si>
-    <t>&gt;++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Medium Indent</t>
-  </si>
-  <si>
-    <t>&gt;++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Indentation moyenne</t>
-  </si>
-  <si>
-    <t>&gt;+++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Big Indent</t>
-  </si>
-  <si>
-    <t>&gt;+++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Indentation large</t>
-  </si>
-  <si>
-    <t>&gt;++++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Right Shift</t>
-  </si>
-  <si>
-    <t>&gt;++++&amp;nbsp;&amp;nbsp;→&amp;nbsp;Décalage à droite</t>
+    <t>’, ‘, ‛   →   '</t>
+  </si>
+  <si>
+    <t>----, ---, --, –   →   —</t>
+  </si>
+  <si>
+    <t>…   →   …</t>
+  </si>
+  <si>
+    <t>&lt;&lt;   →   «</t>
+  </si>
+  <si>
+    <t>&gt;&gt;   →   »</t>
+  </si>
+  <si>
+    <t>+-+   →   —</t>
+  </si>
+  <si>
+    <t>=+=   →   […]</t>
+  </si>
+  <si>
+    <t>&lt;!-- xxx --&gt;   →   deleted</t>
+  </si>
+  <si>
+    <t>&lt;!-- xxx --&gt;   →   supprimé</t>
+  </si>
+  <si>
+    <t>%   →   deleted</t>
+  </si>
+  <si>
+    <t>%   →   supprimé</t>
+  </si>
+  <si>
+    <t>* xxx *   →   italic</t>
+  </si>
+  <si>
+    <t>* xxx *   →   italique</t>
+  </si>
+  <si>
+    <t>*µ xxx µ*   →   bold</t>
+  </si>
+  <si>
+    <t>*µ xxx µ*   →   gras</t>
+  </si>
+  <si>
+    <t>*µµ xxx µµ*   →   italic bold</t>
+  </si>
+  <si>
+    <t>*µµ xxx µµ*   →   italique gras</t>
+  </si>
+  <si>
+    <t>££   →   acrostic</t>
+  </si>
+  <si>
+    <t>££   →   acrostiche</t>
+  </si>
+  <si>
+    <t>#   →   Title</t>
+  </si>
+  <si>
+    <t>#   →   Titre</t>
+  </si>
+  <si>
+    <t>##   →   Author</t>
+  </si>
+  <si>
+    <t>##   →   Auteur</t>
+  </si>
+  <si>
+    <t>###   →   Compilation Title</t>
+  </si>
+  <si>
+    <t>###   →   Titre du recueil</t>
+  </si>
+  <si>
+    <t>####   →   Year</t>
+  </si>
+  <si>
+    <t>####   →   Année</t>
+  </si>
+  <si>
+    <t>#####   →   Sub-title</t>
+  </si>
+  <si>
+    <t>#####   →   Sous-titre</t>
+  </si>
+  <si>
+    <t>&gt;$   →   Part number</t>
+  </si>
+  <si>
+    <t>&gt;$   →   Numéro de partie</t>
+  </si>
+  <si>
+    <t>&lt;=+ xxx +=&gt;   →   Non-verse text</t>
+  </si>
+  <si>
+    <t>&lt;=+ xxx +=&gt;   →   Texte hors vers</t>
+  </si>
+  <si>
+    <t>&lt;+ xxx +&gt;   →   Quotation</t>
+  </si>
+  <si>
+    <t>&lt;+ xxx +&gt;   →   Citation</t>
+  </si>
+  <si>
+    <t>&lt;++ xxx ++&gt;   →   Quotation’s Author</t>
+  </si>
+  <si>
+    <t>&lt;++ xxx ++&gt;   →   Auteur de la citation</t>
+  </si>
+  <si>
+    <t>²cpl1   →   fr: [Couplet 1] en: [Verse 1]</t>
+  </si>
+  <si>
+    <t>²cpl1   →   fr : [Couplet 1] en : [Verse 1]</t>
+  </si>
+  <si>
+    <t>²rfn1   →   fr: [Refrain 1] en: [Chorus 1]</t>
+  </si>
+  <si>
+    <t>²rfn1   →   fr : [Refrain 1] en : [Chorus 1]</t>
+  </si>
+  <si>
+    <t>²pnt   →   fr: [Pont]  en: [Bridge]</t>
+  </si>
+  <si>
+    <t>²pnt   →   fr : [Pont]  en : [Bridge]</t>
+  </si>
+  <si>
+    <t>²rnv   →   fr: [Renvoi]en: [Tag]</t>
+  </si>
+  <si>
+    <t>²rnv   →   fr : [Renvoi]en : [Tag]</t>
+  </si>
+  <si>
+    <t>²itl   →   [Interlude]</t>
+  </si>
+  <si>
+    <t>²int   →   [Intro]</t>
+  </si>
+  <si>
+    <t>²out   →   [Outro]</t>
+  </si>
+  <si>
+    <t>²brp   →   (bis repetitas)</t>
+  </si>
+  <si>
+    <t>&lt;= xxx =&gt;   →   Centered</t>
+  </si>
+  <si>
+    <t>&lt;= xxx =&gt;   →   Centré</t>
+  </si>
+  <si>
+    <t>&lt;== xxx ==&gt;   →   Right-aligned</t>
+  </si>
+  <si>
+    <t>&lt;== xxx ==&gt;   →   Aligné à droite</t>
+  </si>
+  <si>
+    <t>&gt;=   →   Regular Line Jump</t>
+  </si>
+  <si>
+    <t>&gt;=   →   Saut de ligne simple</t>
+  </si>
+  <si>
+    <t>&gt;==   →   Medium Line Jump</t>
+  </si>
+  <si>
+    <t>&gt;==   →   Saut de ligne moyen</t>
+  </si>
+  <si>
+    <t>&gt;===   →   Big Line Jump</t>
+  </si>
+  <si>
+    <t>&gt;===   →   Saut de ligne large</t>
+  </si>
+  <si>
+    <t>&gt;+   →   Regular Indent</t>
+  </si>
+  <si>
+    <t>&gt;+   →   Indentation simple</t>
+  </si>
+  <si>
+    <t>&gt;++   →   Medium Indent</t>
+  </si>
+  <si>
+    <t>&gt;++   →   Indentation moyenne</t>
+  </si>
+  <si>
+    <t>&gt;+++   →   Big Indent</t>
+  </si>
+  <si>
+    <t>&gt;+++   →   Indentation large</t>
+  </si>
+  <si>
+    <t>&gt;++++   →   Right Shift</t>
+  </si>
+  <si>
+    <t>&gt;++++   →   Décalage à droite</t>
   </si>
 </sst>
 </file>
@@ -7373,8 +7373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DB5519B-81DB-4647-9567-D2E01FE95EC9}">
   <dimension ref="A1:F966"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A502" workbookViewId="0">
-      <selection activeCell="D497" sqref="D497"/>
+    <sheetView tabSelected="1" topLeftCell="A453" workbookViewId="0">
+      <selection activeCell="E475" sqref="E475:F521"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
